--- a/pdf/8 - BTS SIO - Annexe 8-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2024.xlsx
+++ b/pdf/8 - BTS SIO - Annexe 8-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2024.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">X SLAM</t>
   </si>
   <si>
-    <t xml:space="preserve">Adresse URL du portfolio : https://theo-oger.github.io/Portfolio/ </t>
+    <t xml:space="preserve">Adresse URL du portfolio : https://theo-oger.github.io/Portfolio/ https://theo-oger.github.io/Portfolio_Th-o/</t>
   </si>
   <si>
     <t xml:space="preserve">Compétences mises en œuvre
@@ -146,25 +146,7 @@
     <t xml:space="preserve">25/11/2024 - 12/12/2024 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Veille sur les vulnérabilités SQLi, XSS et SSRF, collecte et synthèse des articles.</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Création et entretien du portfolio</t>
-    </r>
+    <t xml:space="preserve">Veille sur les vulnérabilités SQLi, XSS et SSRF, collecte et synthèse des articles.Création et entretien du portfolio</t>
   </si>
   <si>
     <t xml:space="preserve">19/09/2024 - Actuellement </t>
@@ -230,7 +212,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* \-??\ [$€-1]_-"/>
     <numFmt numFmtId="166" formatCode="dd\-mmm"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -315,12 +297,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -770,15 +746,27 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -786,43 +774,31 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1081,8 +1057,8 @@
   </sheetPr>
   <dimension ref="A1:AQ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2081,9 +2057,6 @@
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="A25:H25"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" display="Adresse URL du portfolio : https://theo-oger.github.io/Portfolio/ "/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.196527777777778" bottom="0.196527777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
